--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bf84e1838b3daa6/Documents/UiPath/CMPG-323-Project-4-31846769/Connected Office Web Application User Acceptance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bf84e1838b3daa6/Documents/UiPath/CMPG-323-Project-4-31846769/Connected Office Web Application User Acceptance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5069F911-C3F2-481E-9155-C731F0F82983}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1042,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1059,6 +1062,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1076,6 +1082,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1093,6 +1102,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1110,6 +1122,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1127,6 +1142,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1144,6 +1162,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1161,6 +1182,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1178,6 +1202,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1195,6 +1222,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1212,6 +1242,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1229,6 +1262,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1245,6 +1281,9 @@
       </c>
       <c r="E14">
         <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bf84e1838b3daa6/Documents/UiPath/CMPG-323-Project-4-31846769/Connected Office Web Application User Acceptance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5069F911-C3F2-481E-9155-C731F0F82983}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6D3FC1-7924-4D50-80AE-06FE5F03958D}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,6 +431,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bf84e1838b3daa6/Documents/UiPath/CMPG-323-Project-4-31846769/Connected Office Web Application User Acceptance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6D3FC1-7924-4D50-80AE-06FE5F03958D}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6032F8-8458-4D5D-833A-8F8797B56E8A}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,10 +431,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,7 +733,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +994,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,9 +1082,6 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1106,9 +1099,6 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1126,9 +1116,6 @@
       <c r="E6">
         <v>0.7</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1146,9 +1133,6 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1166,9 +1150,6 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1186,9 +1167,6 @@
       <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1206,9 +1184,6 @@
       <c r="E10">
         <v>0.2</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1226,9 +1201,6 @@
       <c r="E11">
         <v>0.2</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1246,9 +1218,6 @@
       <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1266,9 +1235,6 @@
       <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1285,9 +1251,6 @@
       </c>
       <c r="E14">
         <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1722,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,6 +1764,9 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1814,6 +1780,9 @@
       </c>
       <c r="D3" t="s">
         <v>44</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,6 +2005,9 @@
       <c r="D2">
         <v>950</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2049,6 +2021,9 @@
       </c>
       <c r="D3">
         <v>61</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bf84e1838b3daa6/Documents/UiPath/CMPG-323-Project-4-31846769/Connected Office Web Application User Acceptance Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6032F8-8458-4D5D-833A-8F8797B56E8A}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A3C8DC-E09D-48A5-BF91-6D30703E81A1}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,6 +431,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,7 +737,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +783,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -796,6 +803,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -813,6 +823,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -830,6 +843,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -847,6 +863,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -864,6 +883,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -881,6 +903,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -898,6 +923,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -915,6 +943,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -932,6 +963,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -949,6 +983,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -966,6 +1003,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -982,6 +1022,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
@@ -1082,6 +1125,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1099,6 +1145,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1116,6 +1165,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1133,6 +1185,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1150,6 +1205,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1167,6 +1225,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1184,6 +1245,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1201,6 +1265,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1218,6 +1285,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1235,6 +1305,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1252,6 +1325,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1269,6 +1345,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1286,8 +1365,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1303,8 +1385,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1320,8 +1405,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1337,8 +1425,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1354,8 +1445,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1371,8 +1465,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1388,8 +1485,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1405,8 +1505,11 @@
       <c r="E23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1422,8 +1525,11 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1439,8 +1545,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1456,8 +1565,11 @@
       <c r="E26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1473,8 +1585,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1490,8 +1605,11 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1507,8 +1625,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1524,8 +1645,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1541,8 +1665,11 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1558,8 +1685,11 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1575,8 +1705,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1592,8 +1725,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1609,8 +1745,11 @@
       <c r="E35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1626,8 +1765,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1643,8 +1785,11 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1660,8 +1805,11 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1677,8 +1825,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -1694,8 +1845,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -1710,6 +1864,9 @@
       </c>
       <c r="E41">
         <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,6 +1955,9 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1812,6 +1972,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1826,6 +1989,9 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1840,6 +2006,9 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1854,6 +2023,9 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1868,6 +2040,9 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1882,6 +2057,9 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1896,6 +2074,9 @@
       <c r="D11" t="s">
         <v>52</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1910,6 +2091,9 @@
       <c r="D12" t="s">
         <v>53</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1924,6 +2108,9 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1938,6 +2125,9 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1951,6 +2141,9 @@
       </c>
       <c r="D15" t="s">
         <v>56</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1962,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,6 +2232,9 @@
       <c r="D4">
         <v>281</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2053,6 +2249,9 @@
       <c r="D5">
         <v>502</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2067,6 +2266,9 @@
       <c r="D6">
         <v>621</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2081,6 +2283,9 @@
       <c r="D7">
         <v>765</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2095,6 +2300,9 @@
       <c r="D8">
         <v>709</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2109,6 +2317,9 @@
       <c r="D9">
         <v>485</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2123,6 +2334,9 @@
       <c r="D10">
         <v>158</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2137,6 +2351,9 @@
       <c r="D11">
         <v>485</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2151,6 +2368,9 @@
       <c r="D12">
         <v>322</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2165,6 +2385,9 @@
       <c r="D13">
         <v>51</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2179,6 +2402,9 @@
       <c r="D14">
         <v>152</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2193,6 +2419,9 @@
       <c r="D15">
         <v>634</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2207,8 +2436,11 @@
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
@@ -2221,8 +2453,11 @@
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
@@ -2235,8 +2470,11 @@
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
@@ -2249,8 +2487,11 @@
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
@@ -2263,8 +2504,11 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
@@ -2277,8 +2521,11 @@
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
@@ -2291,8 +2538,11 @@
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
@@ -2305,8 +2555,11 @@
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
@@ -2319,8 +2572,11 @@
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
@@ -2333,8 +2589,11 @@
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
@@ -2347,8 +2606,11 @@
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2361,8 +2623,11 @@
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
@@ -2375,8 +2640,11 @@
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
@@ -2389,8 +2657,11 @@
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
@@ -2403,8 +2674,11 @@
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
@@ -2417,8 +2691,11 @@
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
@@ -2431,8 +2708,11 @@
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
@@ -2445,8 +2725,11 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
@@ -2459,8 +2742,11 @@
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
@@ -2473,8 +2759,11 @@
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
@@ -2487,8 +2776,11 @@
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
@@ -2501,8 +2793,11 @@
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
@@ -2515,8 +2810,11 @@
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
@@ -2529,8 +2827,11 @@
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
@@ -2542,6 +2843,9 @@
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
